--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FTNC_Demand5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FTNC_Demand51" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FTNC_Demand52" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FTNC_Demand53" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FTNC_Demand54" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FTNC_Demand55" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +58,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -483,6 +488,346 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.14893524930748</v>
+      </c>
+      <c r="C2" t="n">
+        <v>184.5303067413828</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>196.6792419906901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.7297870498615</v>
+      </c>
+      <c r="C2" t="n">
+        <v>189.4586169906902</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75.18848069396029</v>
+      </c>
+      <c r="F2" t="n">
+        <v>279.3768847345121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11.96169494459834</v>
+      </c>
+      <c r="C2" t="n">
+        <v>184.5360338881972</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>196.4977288327954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.71282029085873</v>
+      </c>
+      <c r="C2" t="n">
+        <v>182.7747665751778</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>193.4875868660364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.72926765927978</v>
+      </c>
+      <c r="C2" t="n">
+        <v>187.0297942760089</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.28313049376839</v>
+      </c>
+      <c r="F2" t="n">
+        <v>210.0421924290569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FTNC_Demand5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FTNC_Demand51" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FTNC_Demand52" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FTNC_Demand53" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FTNC_Demand54" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="FTNC_Demand55" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand51" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand52" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand53" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand54" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand55" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,18 +58,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -472,23 +472,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.574835526315791</v>
+        <v>15.10426765927978</v>
       </c>
       <c r="C2" t="n">
-        <v>178.0098550639436</v>
+        <v>189.2671626970616</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.229923522744834</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.8146141130041</v>
+        <v>204.371430356341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -556,7 +556,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +624,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -692,7 +692,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -760,7 +760,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -828,6 +828,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand51" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand52" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand53" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand54" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FTNC_Demand55" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FTNC_Demand5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FTNC_Demand51" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FTNC_Demand52" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FTNC_Demand53" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FTNC_Demand54" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FTNC_Demand55" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FTNC_Demand56" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="FTNC_Demand57" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="FTNC_Demand58" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="FTNC_Demand59" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="FTNC_Demand510" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,18 +63,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -488,7 +493,143 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8.646684556786706</v>
+      </c>
+      <c r="C2" t="n">
+        <v>178.8261308411057</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.956073777799302</v>
+      </c>
+      <c r="F2" t="n">
+        <v>192.4288891756918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2285.421019712964</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12672.64042375143</v>
+      </c>
+      <c r="D2" t="n">
+        <v>575.6307206712264</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15533.6921641356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -556,7 +697,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -624,7 +765,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -692,7 +833,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -760,7 +901,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -828,6 +969,210 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.421875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>221.8636545138889</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>226.2855295138889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.4249913434903</v>
+      </c>
+      <c r="C2" t="n">
+        <v>186.3187554948454</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>198.7437468383357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.19801765927978</v>
+      </c>
+      <c r="C2" t="n">
+        <v>189.8765048023247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37.42165927533734</v>
+      </c>
+      <c r="F2" t="n">
+        <v>242.4961817369417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -18,6 +18,8 @@
     <sheet name="FTNC_Demand58" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="FTNC_Demand59" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="FTNC_Demand510" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="FTNC_Demand511" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="FTHC_Demand5" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -633,6 +635,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.30821502770083</v>
+      </c>
+      <c r="C2" t="n">
+        <v>182.7941640821028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>53.38723945807137</v>
+      </c>
+      <c r="F2" t="n">
+        <v>249.4896185678749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTHC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.44083242684707</v>
+      </c>
+      <c r="C2" t="n">
+        <v>187.3018996736528</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.239537621283734</v>
+      </c>
+      <c r="F2" t="n">
+        <v>207.9822697217838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -20,6 +20,7 @@
     <sheet name="FTNC_Demand510" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="FTNC_Demand511" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="FTHC_Demand5" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="FTNC_Demand512" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -771,6 +772,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2168.734779449687</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12597.2514713225</v>
+      </c>
+      <c r="D2" t="n">
+        <v>540.7951508955715</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15306.78140166773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -21,6 +21,7 @@
     <sheet name="FTNC_Demand511" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="FTHC_Demand5" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="FTNC_Demand512" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="FTNC_Demand513" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,6 +841,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2201.685920603113</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12909.84384652855</v>
+      </c>
+      <c r="D2" t="n">
+        <v>541.0858334763456</v>
+      </c>
+      <c r="E2" t="n">
+        <v>439.6554545412215</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16092.27105514928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -22,6 +22,7 @@
     <sheet name="FTHC_Demand5" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="FTNC_Demand512" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="FTNC_Demand513" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="FTNC_Demand514" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -909,6 +910,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2284.201304134211</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12564.99774223213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>577.4859084617377</v>
+      </c>
+      <c r="E2" t="n">
+        <v>273.0610744576603</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15699.74602928575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -23,6 +23,7 @@
     <sheet name="FTNC_Demand512" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="FTNC_Demand513" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="FTNC_Demand514" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="FTNC_Demand515" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -978,6 +979,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2151.369560509833</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12665.43114145906</v>
+      </c>
+      <c r="D2" t="n">
+        <v>461.8074481186643</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15278.60815008753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Results_ZC/results_Demand_5.xlsx
+++ b/Results_ZC/results_Demand_5.xlsx
@@ -24,6 +24,8 @@
     <sheet name="FTNC_Demand513" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="FTNC_Demand514" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="FTNC_Demand515" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="FTNC_Demand516" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="FTHC_Demand51" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1047,6 +1049,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2109.323368643516</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12732.99064835311</v>
+      </c>
+      <c r="D2" t="n">
+        <v>374.5119430131296</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43.50906907283795</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15260.33502908257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTHC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2232.164806829644</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12581.78707840258</v>
+      </c>
+      <c r="D2" t="n">
+        <v>375.4875219215975</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.412815180977432</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15194.85222233474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
